--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715E7ABA-B05F-4F4C-8E6B-65906BB2351F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F873B87E-2D3A-4FD4-8624-F8BCB84184EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
-    <sheet name="Categoria_Producto" sheetId="2" r:id="rId2"/>
-    <sheet name="Producto" sheetId="3" r:id="rId3"/>
+    <sheet name="Producto" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -288,6 +287,15 @@
   </si>
   <si>
     <t>Talco Para Texturas</t>
+  </si>
+  <si>
+    <t>CP1</t>
+  </si>
+  <si>
+    <t>CP2</t>
+  </si>
+  <si>
+    <t>CP3</t>
   </si>
 </sst>
 </file>
@@ -747,7 +755,7 @@
   <dimension ref="B2:AD9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D14"/>
+      <selection activeCell="J2" sqref="J2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,85 +1157,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DFB61E-C1FD-4D84-BC65-BAFAFBF4D617}">
-  <dimension ref="B2:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
-  <dimension ref="B2:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,10 +1170,12 @@
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>71</v>
       </c>
@@ -1247,8 +1183,13 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="I2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
@@ -1262,49 +1203,73 @@
         <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>77</v>
       </c>
@@ -1314,8 +1279,9 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>78</v>
       </c>
@@ -1325,8 +1291,9 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>79</v>
       </c>
@@ -1334,8 +1301,9 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>80</v>
       </c>
@@ -1343,8 +1311,9 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>81</v>
       </c>
@@ -1352,8 +1321,9 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>82</v>
       </c>
@@ -1361,8 +1331,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>83</v>
       </c>
@@ -1370,25 +1341,18 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -1609,6 +1573,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1618,14 +1591,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1645,6 +1610,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
   <ds:schemaRefs>

--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIDEL-SMOKE\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F873B87E-2D3A-4FD4-8624-F8BCB84184EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B656B54D-2E70-49D9-964F-AA1C6CB04E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
-    <sheet name="Producto" sheetId="3" r:id="rId2"/>
+    <sheet name=" Producto Normalización" sheetId="3" r:id="rId2"/>
+    <sheet name="Servicio Normalización" sheetId="4" r:id="rId3"/>
+    <sheet name="Compra Normalización" sheetId="5" r:id="rId4"/>
+    <sheet name="CarritoCompra_Normalización" sheetId="6" r:id="rId5"/>
+    <sheet name="Factura_Normalización" sheetId="7" r:id="rId6"/>
+    <sheet name="Recordatorio_Normalización" sheetId="8" r:id="rId7"/>
+    <sheet name="Horario_Normalización" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="166">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -169,9 +175,6 @@
     <t>B3</t>
   </si>
   <si>
-    <t>BARBERO</t>
-  </si>
-  <si>
     <t>Deiby</t>
   </si>
   <si>
@@ -268,18 +271,6 @@
     <t>P6</t>
   </si>
   <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
     <t>Camisetas Oversize</t>
   </si>
   <si>
@@ -296,13 +287,256 @@
   </si>
   <si>
     <t>CP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piercings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camisetas con estampados </t>
+  </si>
+  <si>
+    <t>Aretes , expanciones, simulaciones, etc..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mascarillas para puntos negros e hidratantes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para un texturizado mas visibles </t>
+  </si>
+  <si>
+    <t>Piercings para ceja, nariz, lengua, labio, etc….</t>
+  </si>
+  <si>
+    <t>Gorras de diferentes estilos</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>ID_Servicio</t>
+  </si>
+  <si>
+    <t>SE1</t>
+  </si>
+  <si>
+    <t>SE2</t>
+  </si>
+  <si>
+    <t>SE3</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t>TS2</t>
+  </si>
+  <si>
+    <t>TS3</t>
+  </si>
+  <si>
+    <t>ID_barbero</t>
+  </si>
+  <si>
+    <t>ID_cliente</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>BARBER0</t>
+  </si>
+  <si>
+    <t>Compra</t>
+  </si>
+  <si>
+    <t>ID_Compra</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Precio_Total</t>
+  </si>
+  <si>
+    <t>Tipo_Pago</t>
+  </si>
+  <si>
+    <t>CO1</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorra Morada </t>
+  </si>
+  <si>
+    <t>Nequi</t>
+  </si>
+  <si>
+    <t>CO4</t>
+  </si>
+  <si>
+    <t>Expansion 8</t>
+  </si>
+  <si>
+    <t>Tarjeta de credito</t>
+  </si>
+  <si>
+    <t>Bancolombia</t>
+  </si>
+  <si>
+    <t>Daviplata</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Producto </t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Nombre_Producto</t>
+  </si>
+  <si>
+    <t>Mascarilla Para Puntos Negros</t>
+  </si>
+  <si>
+    <t>Camiseta Con Estampado</t>
+  </si>
+  <si>
+    <t>Gorra Olgada Morada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expasion </t>
+  </si>
+  <si>
+    <t>Par De Expansiones Moradas Numero 8</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>098t47ty785</t>
+  </si>
+  <si>
+    <t>Jose Almanza</t>
+  </si>
+  <si>
+    <t>Almanza@gmail.com</t>
+  </si>
+  <si>
+    <t>CarritoCompra</t>
+  </si>
+  <si>
+    <t>ID_CarritoCompra</t>
+  </si>
+  <si>
+    <t>CAR1</t>
+  </si>
+  <si>
+    <t>CAR2</t>
+  </si>
+  <si>
+    <t>CAR3</t>
+  </si>
+  <si>
+    <t>CAR4</t>
+  </si>
+  <si>
+    <t>Gorra Negra</t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>ID_Factura</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>ID_Admin</t>
+  </si>
+  <si>
+    <t>AD1</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Saya</t>
+  </si>
+  <si>
+    <t>Saya1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Nit</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>Recordatorio</t>
+  </si>
+  <si>
+    <t>ID_Recordatorio</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>ID_Horario</t>
+  </si>
+  <si>
+    <t>ReservaTurno</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Fecha_Hora</t>
+  </si>
+  <si>
+    <t>#######</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +548,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,12 +615,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -431,10 +695,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,9 +735,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -496,7 +775,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -602,7 +881,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -744,7 +1023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -755,7 +1034,7 @@
   <dimension ref="B2:AD9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M2"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,41 +1068,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="O2" s="18" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="O2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="S2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Z2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Z2" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
     </row>
     <row r="3" spans="2:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -863,13 +1142,13 @@
         <v>13</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>31</v>
@@ -913,10 +1192,10 @@
         <v>22</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>26</v>
@@ -925,7 +1204,7 @@
         <v>44</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>8</v>
@@ -940,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -964,13 +1243,13 @@
         <v>123456789</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="7">
         <v>1098654024</v>
@@ -990,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
@@ -1002,7 +1281,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>9</v>
@@ -1017,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>27</v>
@@ -1041,13 +1320,13 @@
         <v>42</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC5" s="7">
         <v>1087456820</v>
@@ -1067,10 +1346,10 @@
         <v>24</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>28</v>
@@ -1079,7 +1358,7 @@
         <v>46</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>10</v>
@@ -1094,7 +1373,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>28</v>
@@ -1118,13 +1397,13 @@
         <v>43</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC6" s="7">
         <v>3078652463</v>
@@ -1158,190 +1437,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="12">
+        <v>20</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="1">
+        <v>78000</v>
+      </c>
       <c r="I4" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20000</v>
+      </c>
       <c r="I6" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15000</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="1">
+        <v>32000</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G9" s="1">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1352,7 +1642,1556 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C501386-919F-43F1-83F0-4F38E7F1D1A2}">
+  <dimension ref="B3:W7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:W7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="G3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="L3" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="R3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="7">
+        <v>18000</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1098654024</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3145679803</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="7">
+        <v>1098556772</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3109980085</v>
+      </c>
+      <c r="W5" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="7">
+        <v>22000</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1087456820</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3198765902</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1028662003</v>
+      </c>
+      <c r="V6" s="1">
+        <v>3142758305</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="7">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="7">
+        <v>3078652463</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="7">
+        <v>10098977625</v>
+      </c>
+      <c r="V7" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="R3:W3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="N5" r:id="rId1" xr:uid="{0EE36BAE-FD65-4A0D-B234-B5242380755C}"/>
+    <hyperlink ref="N6" r:id="rId2" xr:uid="{CC45E5CC-B535-40EC-9250-1AF04D3369B7}"/>
+    <hyperlink ref="N7" r:id="rId3" xr:uid="{4D44F646-E734-4AC1-A648-473E540EBB06}"/>
+    <hyperlink ref="T5" r:id="rId4" xr:uid="{A220742F-352F-4C87-AF9E-5C9351774503}"/>
+    <hyperlink ref="T6" r:id="rId5" xr:uid="{7FCC4D03-5BBE-4F31-BE43-58678D54E062}"/>
+    <hyperlink ref="T7" r:id="rId6" xr:uid="{FB8F6903-009D-4D6F-8ECA-FCBE20E9B5D0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E8590F-DA86-47A1-B849-50E6B16DDC38}">
+  <dimension ref="B2:U7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="39.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="28" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="P2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="14">
+        <v>78000</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="7">
+        <v>78000</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="7">
+        <v>1098556772</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3109980085</v>
+      </c>
+      <c r="U4" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1028662003</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3142758305</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="14">
+        <v>8000</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="7">
+        <v>8000</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="7">
+        <v>10098977625</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="14">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="7">
+        <v>15000</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7" s="7">
+        <v>10098977625</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="R4" r:id="rId1" xr:uid="{49D2474B-9DF1-4078-A96B-79A4C7421D28}"/>
+    <hyperlink ref="R5" r:id="rId2" xr:uid="{1E50DF8C-9485-4106-9EBF-C219D5452F86}"/>
+    <hyperlink ref="R6" r:id="rId3" xr:uid="{81F44E6B-E1EB-48D2-8448-704944444C67}"/>
+    <hyperlink ref="R7" r:id="rId4" xr:uid="{A04B5D26-59EC-4240-91B9-2AADC5F7A1B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
+  <dimension ref="B2:Z7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:Z7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="22" max="22" width="32.7109375" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="G2" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="N2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="U2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="7">
+        <v>78000</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1098556772</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3109980085</v>
+      </c>
+      <c r="S4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4" s="14">
+        <v>78000</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1028662003</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3142758305</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="7">
+        <v>8000</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>10098977625</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W6" s="14">
+        <v>8000</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="7">
+        <v>15000</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>10098977625</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="14">
+        <v>15000</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="U2:Z2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{55BCC468-F93D-479B-9113-E242755EF2FF}"/>
+    <hyperlink ref="P5" r:id="rId2" xr:uid="{FB0075C4-72A2-4CD4-A89A-943D6CBC1F93}"/>
+    <hyperlink ref="P6" r:id="rId3" xr:uid="{D002F08D-6D05-47CA-B68F-EAC83CC26DCB}"/>
+    <hyperlink ref="P7" r:id="rId4" xr:uid="{68DD4F51-61A3-41A7-82D5-731B8DD9E697}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73743B71-12CC-4A65-A712-8C586D2A7F83}">
+  <dimension ref="B2:S7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="G2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="N2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="15">
+        <v>45801</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="14">
+        <v>78000</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>10986775432</v>
+      </c>
+      <c r="R4" s="12">
+        <v>3045678902</v>
+      </c>
+      <c r="S4" s="12">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="15">
+        <v>46227</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="15">
+        <v>46623</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="14">
+        <v>8000</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="15">
+        <v>47020</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="14">
+        <v>15000</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="N2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{65BDD4A5-6B86-4719-8A81-168C1A65AEE4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
+  <dimension ref="B2:O5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="N2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" s="24"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1195C19-A3D4-4E8F-9FE3-4527918E5A48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -1573,24 +3412,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1608,24 +3450,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIDEL-SMOKE\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B656B54D-2E70-49D9-964F-AA1C6CB04E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FFBE89-E0E0-4617-9F33-226AD04FC4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -735,9 +735,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -775,7 +775,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -881,7 +881,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1023,7 +1023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1647,7 +1647,7 @@
   <dimension ref="B3:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:W7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E8590F-DA86-47A1-B849-50E6B16DDC38}">
   <dimension ref="B2:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
   <dimension ref="B2:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2:Z7"/>
     </sheetView>
   </sheetViews>
@@ -2735,7 +2735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73743B71-12CC-4A65-A712-8C586D2A7F83}">
   <dimension ref="B2:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -2997,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
   <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3175,23 +3175,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3412,10 +3395,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3433,21 +3445,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FFBE89-E0E0-4617-9F33-226AD04FC4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53143322-F573-4546-96FA-E8F14D67B068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="172">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -76,9 +76,6 @@
     <t xml:space="preserve">ID_Horario </t>
   </si>
   <si>
-    <t xml:space="preserve">ID_Cliente </t>
-  </si>
-  <si>
     <t>ID_Barbero</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>098t47ty784</t>
   </si>
   <si>
-    <t xml:space="preserve">B1 </t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
@@ -530,6 +524,30 @@
   </si>
   <si>
     <t>#######</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>ID_Rol</t>
+  </si>
+  <si>
+    <t>Nombre_Rol</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Barbero</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Id_Rol</t>
+  </si>
+  <si>
+    <t>ID_Usuario</t>
   </si>
 </sst>
 </file>
@@ -579,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -639,12 +657,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -714,6 +763,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1031,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
-  <dimension ref="B2:AD9"/>
+  <dimension ref="B2:AB9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1129,7 @@
     <col min="30" max="30" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
@@ -1084,27 +1146,25 @@
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="O2" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
-      <c r="S2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Z2" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-    </row>
-    <row r="3" spans="2:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="29"/>
+      <c r="AA2" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB2" s="28"/>
+    </row>
+    <row r="3" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1121,67 +1181,58 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>31</v>
+      <c r="Y3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:30" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1189,49 +1240,46 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="7">
         <v>18000</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V4" s="7">
         <v>1098556772</v>
@@ -1239,26 +1287,20 @@
       <c r="W4" s="1">
         <v>3109980085</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="26">
         <v>123456789</v>
       </c>
-      <c r="Z4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>1098654024</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>3145679803</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1266,49 +1308,46 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>22000</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V5" s="7">
         <v>1028662003</v>
@@ -1316,26 +1355,20 @@
       <c r="W5" s="1">
         <v>3142758305</v>
       </c>
-      <c r="X5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>1087456820</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>3198765902</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1343,49 +1376,46 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>50000</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V6" s="7">
         <v>10098977625</v>
@@ -1393,43 +1423,34 @@
       <c r="W6" s="1">
         <v>3044495505</v>
       </c>
-      <c r="X6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>3078652463</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>3044495505</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="X6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S2:X2"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U4" r:id="rId1" xr:uid="{6B5B4F14-46AF-47B1-B4F8-5BE8342968CE}"/>
     <hyperlink ref="U5" r:id="rId2" xr:uid="{456414B6-326B-4422-84EF-4B15C306B71E}"/>
     <hyperlink ref="U6" r:id="rId3" xr:uid="{6B2B062E-3456-4C8D-8B01-A868D44AE9CC}"/>
-    <hyperlink ref="AB4" r:id="rId4" xr:uid="{AB834CD7-C85B-454B-9306-35709E97617D}"/>
-    <hyperlink ref="AB5" r:id="rId5" xr:uid="{E4BD592D-A672-4D8F-B38C-8F64A72B1232}"/>
-    <hyperlink ref="AB6" r:id="rId6" xr:uid="{FBEBD8DD-B4FA-43A5-8F30-B573C1D9A618}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1439,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1457,7 +1478,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -1465,129 +1486,129 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="I2" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="12">
         <v>20</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1">
         <v>78000</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1">
         <v>50000</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1">
         <v>20000</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" s="1">
         <v>15000</v>
@@ -1595,19 +1616,19 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="1">
         <v>32000</v>
@@ -1615,19 +1636,19 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1">
         <v>60</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
@@ -1675,7 +1696,7 @@
   <sheetData>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -1687,14 +1708,14 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="L3" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="R3" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
@@ -1704,96 +1725,96 @@
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="L4" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="7">
         <v>18000</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O5" s="7">
         <v>1098654024</v>
@@ -1802,13 +1823,13 @@
         <v>3145679803</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U5" s="7">
         <v>1098556772</v>
@@ -1822,37 +1843,37 @@
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="7">
         <v>22000</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O6" s="7">
         <v>1087456820</v>
@@ -1861,13 +1882,13 @@
         <v>3198765902</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U6" s="7">
         <v>1028662003</v>
@@ -1876,42 +1897,42 @@
         <v>3142758305</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="7">
         <v>50000</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O7" s="7">
         <v>3078652463</v>
@@ -1920,13 +1941,13 @@
         <v>3044495505</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U7" s="7">
         <v>10098977625</v>
@@ -1935,7 +1956,7 @@
         <v>3044495505</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2009,7 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -1996,7 +2017,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="I2" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -2004,7 +2025,7 @@
       <c r="M2" s="23"/>
       <c r="N2" s="24"/>
       <c r="P2" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
@@ -2014,105 +2035,105 @@
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="P3" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="14">
         <v>78000</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N4" s="7">
         <v>78000</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" s="7">
         <v>1098556772</v>
@@ -2126,49 +2147,49 @@
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D5" s="2">
         <v>50000</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N5" s="7">
         <v>50000</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S5" s="7">
         <v>1028662003</v>
@@ -2177,54 +2198,54 @@
         <v>3142758305</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="14">
         <v>8000</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N6" s="7">
         <v>8000</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S6" s="7">
         <v>10098977625</v>
@@ -2233,54 +2254,54 @@
         <v>3044495505</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="14">
         <v>15000</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7" s="7">
         <v>15000</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S7" s="7">
         <v>10098977625</v>
@@ -2289,7 +2310,7 @@
         <v>3044495505</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
   <dimension ref="B2:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U2" sqref="U2:Z7"/>
     </sheetView>
   </sheetViews>
@@ -2343,13 +2364,13 @@
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="G2" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -2357,7 +2378,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
       <c r="N2" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
@@ -2365,7 +2386,7 @@
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
       <c r="U2" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
@@ -2375,111 +2396,111 @@
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="Y3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7">
         <v>78000</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="7">
         <v>1098556772</v>
@@ -2491,63 +2512,63 @@
         <v>123456789</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W4" s="14">
         <v>78000</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7">
         <v>50000</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="7">
         <v>1028662003</v>
@@ -2556,66 +2577,66 @@
         <v>3142758305</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W5" s="2">
         <v>50000</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" s="7">
         <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L6" s="7">
         <v>8000</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="7">
         <v>10098977625</v>
@@ -2624,66 +2645,66 @@
         <v>3044495505</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="W6" s="14">
         <v>8000</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7">
         <v>15000</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7">
         <v>10098977625</v>
@@ -2692,25 +2713,25 @@
         <v>3044495505</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W7" s="14">
         <v>15000</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2761,13 +2782,13 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="G2" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2775,7 +2796,7 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="N2" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
@@ -2785,93 +2806,93 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="15">
         <v>45801</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I4" s="14">
         <v>78000</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="12">
         <v>10986775432</v>
@@ -2885,98 +2906,98 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="15">
         <v>46227</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I5" s="2">
         <v>50000</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="15">
         <v>46623</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I6" s="14">
         <v>8000</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="15">
         <v>47020</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I7" s="14">
         <v>15000</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3017,12 +3038,12 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="F2" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -3031,19 +3052,19 @@
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
       <c r="N2" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
@@ -3052,7 +3073,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
@@ -3061,92 +3082,92 @@
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="16">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="18">
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="16">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3175,6 +3196,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3395,24 +3433,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3430,24 +3471,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIDEL-SMOKE\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53143322-F573-4546-96FA-E8F14D67B068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1E389-F814-4CCC-90D0-EA1ACEE7082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="164">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -118,9 +118,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>CLIIENTE</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -166,33 +163,12 @@
     <t>B2</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>Deiby</t>
-  </si>
-  <si>
-    <t>Jeison</t>
-  </si>
-  <si>
-    <t>Nixon</t>
-  </si>
-  <si>
-    <t>Deibybarber0@gmail.com</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>jeisonbarber1@gmail.com</t>
-  </si>
-  <si>
-    <t>Nixonbarber2@gmail.com</t>
-  </si>
-  <si>
     <t>ID_Cliente</t>
   </si>
   <si>
@@ -328,18 +304,12 @@
     <t>TS3</t>
   </si>
   <si>
-    <t>ID_barbero</t>
-  </si>
-  <si>
     <t>ID_cliente</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>BARBER0</t>
-  </si>
-  <si>
     <t>Compra</t>
   </si>
   <si>
@@ -548,6 +518,12 @@
   </si>
   <si>
     <t>ID_Usuario</t>
+  </si>
+  <si>
+    <t>ID_Usario</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
   </si>
 </sst>
 </file>
@@ -597,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -657,43 +633,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -750,6 +695,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,19 +712,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -797,9 +733,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -837,7 +773,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -943,7 +879,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1085,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1093,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
-  <dimension ref="B2:AB9"/>
+  <dimension ref="B2:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C16"/>
+    <sheetView topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,64 +1043,62 @@
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="43.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="43" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" customWidth="1"/>
-    <col min="22" max="22" width="24.42578125" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" customWidth="1"/>
-    <col min="26" max="26" width="19.28515625" customWidth="1"/>
-    <col min="27" max="27" width="24.140625" customWidth="1"/>
-    <col min="28" max="28" width="26.140625" customWidth="1"/>
-    <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="30" max="30" width="17" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="43" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" customWidth="1"/>
+    <col min="26" max="26" width="24.140625" customWidth="1"/>
+    <col min="27" max="27" width="26.140625" customWidth="1"/>
+    <col min="28" max="28" width="16" customWidth="1"/>
+    <col min="29" max="29" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="20" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="O2" s="20" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="S2" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="29"/>
-      <c r="AA2" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB2" s="28"/>
-    </row>
-    <row r="3" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="R2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="26"/>
+      <c r="Z2" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA2" s="26"/>
+    </row>
+    <row r="3" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1181,31 +1115,34 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="O3" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>30</v>
@@ -1216,23 +1153,20 @@
       <c r="V3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1243,64 +1177,64 @@
         <v>21</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="I4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="7">
+      <c r="L4" s="7">
         <v>18000</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="7">
+      <c r="O4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="7">
         <v>1098556772</v>
       </c>
-      <c r="W4" s="1">
+      <c r="V4" s="1">
         <v>3109980085</v>
       </c>
-      <c r="X4" s="26">
+      <c r="W4" s="21">
         <v>123456789</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="X4" s="1">
         <v>1</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="Z4" s="4">
         <v>1</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1311,64 +1245,64 @@
         <v>22</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="I5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="7">
+      <c r="L5" s="7">
         <v>22000</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="O5" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="P5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="7">
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="7">
         <v>1028662003</v>
       </c>
-      <c r="W5" s="1">
+      <c r="V5" s="1">
         <v>3142758305</v>
       </c>
-      <c r="X5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="W5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="1">
         <v>1</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="Z5" s="4">
         <v>2</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1379,78 +1313,78 @@
         <v>23</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="I6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="7">
+      <c r="L6" s="7">
         <v>50000</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="O6" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="P6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V6" s="7">
+      <c r="S6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="7">
         <v>10098977625</v>
       </c>
-      <c r="W6" s="1">
+      <c r="V6" s="1">
         <v>3044495505</v>
       </c>
-      <c r="X6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="W6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="1">
         <v>1</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="Z6" s="4">
         <v>3</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="AA6" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="S2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="U4" r:id="rId1" xr:uid="{6B5B4F14-46AF-47B1-B4F8-5BE8342968CE}"/>
-    <hyperlink ref="U5" r:id="rId2" xr:uid="{456414B6-326B-4422-84EF-4B15C306B71E}"/>
-    <hyperlink ref="U6" r:id="rId3" xr:uid="{6B2B062E-3456-4C8D-8B01-A868D44AE9CC}"/>
+    <hyperlink ref="T4" r:id="rId1" xr:uid="{6B5B4F14-46AF-47B1-B4F8-5BE8342968CE}"/>
+    <hyperlink ref="T5" r:id="rId2" xr:uid="{456414B6-326B-4422-84EF-4B15C306B71E}"/>
+    <hyperlink ref="T6" r:id="rId3" xr:uid="{6B2B062E-3456-4C8D-8B01-A868D44AE9CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1460,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1477,138 +1411,138 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="20"/>
+      <c r="B2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E4" s="12">
         <v>20</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1">
         <v>78000</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1">
         <v>50000</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1">
         <v>20000</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G7" s="1">
         <v>15000</v>
@@ -1616,19 +1550,19 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G8" s="1">
         <v>32000</v>
@@ -1636,19 +1570,19 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1">
         <v>60</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
@@ -1665,91 +1599,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C501386-919F-43F1-83F0-4F38E7F1D1A2}">
-  <dimension ref="B3:W7"/>
+  <dimension ref="B3:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="26" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" customWidth="1"/>
-    <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="28.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="19" max="19" width="28.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="G3" s="20" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="L3" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="R3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="K3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+      <c r="S3" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="26"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>14</v>
+      <c r="K4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>30</v>
@@ -1763,216 +1694,178 @@
       <c r="P4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>30</v>
+      <c r="Q4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>18000</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="7">
-        <v>18000</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1098654024</v>
+      <c r="M5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1098556772</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3109980085</v>
       </c>
       <c r="P5" s="1">
-        <v>3145679803</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="1" t="s">
+        <v>123456789</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="7">
+        <v>22000</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="M6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="7">
-        <v>1098556772</v>
-      </c>
-      <c r="V5" s="1">
-        <v>3109980085</v>
-      </c>
-      <c r="W5" s="1">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="7">
-        <v>22000</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1087456820</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3198765902</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="N6" s="7">
+        <v>1028662003</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3142758305</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="7">
+        <v>50000</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="U6" s="7">
-        <v>1028662003</v>
-      </c>
-      <c r="V6" s="1">
-        <v>3142758305</v>
-      </c>
-      <c r="W6" s="12" t="s">
+      <c r="N7" s="7">
+        <v>10098977625</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="7">
-        <v>50000</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="7">
-        <v>3078652463</v>
-      </c>
-      <c r="P7" s="1">
-        <v>3044495505</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="7">
-        <v>10098977625</v>
-      </c>
-      <c r="V7" s="1">
-        <v>3044495505</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>42</v>
+      <c r="Q7" s="12">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1" xr:uid="{0EE36BAE-FD65-4A0D-B234-B5242380755C}"/>
-    <hyperlink ref="N6" r:id="rId2" xr:uid="{CC45E5CC-B535-40EC-9250-1AF04D3369B7}"/>
-    <hyperlink ref="N7" r:id="rId3" xr:uid="{4D44F646-E734-4AC1-A648-473E540EBB06}"/>
-    <hyperlink ref="T5" r:id="rId4" xr:uid="{A220742F-352F-4C87-AF9E-5C9351774503}"/>
-    <hyperlink ref="T6" r:id="rId5" xr:uid="{7FCC4D03-5BBE-4F31-BE43-58678D54E062}"/>
-    <hyperlink ref="T7" r:id="rId6" xr:uid="{FB8F6903-009D-4D6F-8ECA-FCBE20E9B5D0}"/>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{B49A1CB9-E41E-436B-9CE4-5ADB2C9DF14E}"/>
+    <hyperlink ref="M6" r:id="rId2" xr:uid="{AA5E5163-1E46-4CF4-BE23-0C07D01CF971}"/>
+    <hyperlink ref="M7" r:id="rId3" xr:uid="{63774913-6B9D-4972-BEA4-E65BDA4BD643}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1980,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E8590F-DA86-47A1-B849-50E6B16DDC38}">
-  <dimension ref="B2:U7"/>
+  <dimension ref="B2:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,135 +1898,152 @@
     <col min="19" max="19" width="18.85546875" customWidth="1"/>
     <col min="20" max="20" width="19.5703125" customWidth="1"/>
     <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="P2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="P2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="X2" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D4" s="14">
         <v>78000</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7">
         <v>78000</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S4" s="7">
         <v>1098556772</v>
@@ -2144,40 +2054,49 @@
       <c r="U4" s="1">
         <v>123456789</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>50000</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="N5" s="7">
         <v>50000</v>
@@ -2186,10 +2105,10 @@
         <v>26</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S5" s="7">
         <v>1028662003</v>
@@ -2198,42 +2117,51 @@
         <v>3142758305</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="V5" s="12">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D6" s="14">
         <v>8000</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="N6" s="7">
         <v>8000</v>
@@ -2242,10 +2170,10 @@
         <v>27</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S6" s="7">
         <v>10098977625</v>
@@ -2254,54 +2182,63 @@
         <v>3044495505</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="V6" s="12">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D7" s="14">
         <v>15000</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N7" s="7">
         <v>15000</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="S7" s="7">
         <v>10098977625</v>
@@ -2310,14 +2247,18 @@
         <v>3044495505</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="V7" s="12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:N2"/>
-    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="P2:V2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2333,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
-  <dimension ref="B2:Z7"/>
+  <dimension ref="B2:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:Z7"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,147 +2301,163 @@
     <col min="24" max="24" width="17.42578125" customWidth="1"/>
     <col min="25" max="25" width="14.7109375" customWidth="1"/>
     <col min="26" max="26" width="14.28515625" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="N2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="U2" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="N2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="26"/>
+      <c r="V2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AC2" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD2" s="26"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>103</v>
+      <c r="T3" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L4" s="7">
         <v>78000</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="7">
         <v>1098556772</v>
@@ -2511,52 +2468,61 @@
       <c r="S4" s="1">
         <v>123456789</v>
       </c>
-      <c r="U4" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W4" s="14">
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" s="14">
         <v>78000</v>
       </c>
-      <c r="X4" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="Y4" s="12" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L5" s="7">
         <v>50000</v>
@@ -2565,10 +2531,10 @@
         <v>26</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="7">
         <v>1028662003</v>
@@ -2577,54 +2543,63 @@
         <v>3142758305</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="W5" s="2">
+        <v>40</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X5" s="2">
         <v>50000</v>
       </c>
-      <c r="X5" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="Y5" s="12" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="Z5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J6" s="7">
         <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L6" s="7">
         <v>8000</v>
@@ -2633,10 +2608,10 @@
         <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="7">
         <v>10098977625</v>
@@ -2645,66 +2620,75 @@
         <v>3044495505</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="W6" s="14">
+        <v>41</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X6" s="14">
         <v>8000</v>
       </c>
-      <c r="X6" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="Y6" s="12" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="Z6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA6" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7">
         <v>15000</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7">
         <v>10098977625</v>
@@ -2713,40 +2697,45 @@
         <v>3044495505</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="U7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" s="12">
+        <v>1</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="W7" s="14">
+      <c r="X7" s="14">
         <v>15000</v>
       </c>
-      <c r="X7" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="Y7" s="12" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
+        <v>66</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="U2:Z2"/>
+    <mergeCell ref="N2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1" xr:uid="{55BCC468-F93D-479B-9113-E242755EF2FF}"/>
-    <hyperlink ref="P5" r:id="rId2" xr:uid="{FB0075C4-72A2-4CD4-A89A-943D6CBC1F93}"/>
-    <hyperlink ref="P6" r:id="rId3" xr:uid="{D002F08D-6D05-47CA-B68F-EAC83CC26DCB}"/>
-    <hyperlink ref="P7" r:id="rId4" xr:uid="{68DD4F51-61A3-41A7-82D5-731B8DD9E697}"/>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{67D4A995-0BAE-4508-88F6-2C7C0253F221}"/>
+    <hyperlink ref="P5" r:id="rId2" xr:uid="{3EDD6798-4441-464A-AED8-7C40EF9AE8B8}"/>
+    <hyperlink ref="P6" r:id="rId3" xr:uid="{E9F1E833-61D4-4645-91DC-9EAF11BFFEF2}"/>
+    <hyperlink ref="P7" r:id="rId4" xr:uid="{FD86A272-56F9-49C1-9B9F-47CADB86462D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2754,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73743B71-12CC-4A65-A712-8C586D2A7F83}">
-  <dimension ref="B2:S7"/>
+  <dimension ref="B2:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,121 +2767,137 @@
     <col min="17" max="17" width="18" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
     <col min="19" max="19" width="14.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="N2" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="26"/>
+      <c r="V2" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="G2" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="N2" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C4" s="15">
         <v>45801</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I4" s="14">
         <v>78000</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="12">
         <v>10986775432</v>
@@ -2903,108 +2908,130 @@
       <c r="S4" s="12">
         <v>12345</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="12">
+        <v>3</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C5" s="15">
         <v>46227</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I5" s="2">
         <v>50000</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V5" s="4">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C6" s="15">
         <v>46623</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I6" s="14">
         <v>8000</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V6" s="4">
+        <v>3</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C7" s="15">
         <v>47020</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="I7" s="14">
         <v>15000</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3037,34 +3064,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="F2" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="N2" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="O2" s="24"/>
+      <c r="B2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="N2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
@@ -3073,7 +3100,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
@@ -3082,21 +3109,21 @@
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
@@ -3108,33 +3135,33 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C5" s="18">
         <v>2</v>
@@ -3146,28 +3173,28 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3196,23 +3223,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3433,10 +3443,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3454,21 +3493,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIDEL-SMOKE\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\NORMALIZACION Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1E389-F814-4CCC-90D0-EA1ACEE7082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC43265-8C6F-4ADD-BF39-A65BE3262C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="6" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -520,10 +520,10 @@
     <t>ID_Usuario</t>
   </si>
   <si>
-    <t>ID_Usario</t>
-  </si>
-  <si>
     <t>USUARIO</t>
+  </si>
+  <si>
+    <t>Cliente</t>
   </si>
 </sst>
 </file>
@@ -733,9 +733,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -773,7 +773,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -879,7 +879,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1021,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1031,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
   <dimension ref="B2:AA9"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2:AA6"/>
     </sheetView>
   </sheetViews>
@@ -1394,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C501386-919F-43F1-83F0-4F38E7F1D1A2}">
   <dimension ref="B3:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:T7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,7 +1641,7 @@
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="K3" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -1662,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>29</v>
@@ -1745,13 +1745,13 @@
         <v>123456789</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5" s="4">
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
         <v>40</v>
       </c>
       <c r="Q6" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" s="4">
         <v>2</v>
@@ -1845,13 +1845,13 @@
         <v>41</v>
       </c>
       <c r="Q7" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7" s="4">
         <v>3</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E8590F-DA86-47A1-B849-50E6B16DDC38}">
   <dimension ref="B2:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:Y6"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1921,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="26"/>
       <c r="P2" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
@@ -2055,13 +2055,13 @@
         <v>123456789</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X4" s="4">
         <v>1</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>40</v>
       </c>
       <c r="V5" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" s="4">
         <v>2</v>
@@ -2185,13 +2185,13 @@
         <v>41</v>
       </c>
       <c r="V6" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X6" s="4">
         <v>3</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>119</v>
       </c>
       <c r="V7" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2276,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
   <dimension ref="B2:AD16"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AD6"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2321,7 @@
       <c r="K2" s="25"/>
       <c r="L2" s="26"/>
       <c r="N2" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
@@ -2374,7 +2374,7 @@
         <v>17</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>29</v>
@@ -2469,7 +2469,7 @@
         <v>123456789</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" s="16" t="s">
         <v>97</v>
@@ -2546,7 +2546,7 @@
         <v>40</v>
       </c>
       <c r="T5" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>98</v>
@@ -2623,7 +2623,7 @@
         <v>41</v>
       </c>
       <c r="T6" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>99</v>
@@ -2700,7 +2700,7 @@
         <v>119</v>
       </c>
       <c r="T7" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7" s="12" t="s">
         <v>102</v>
@@ -2745,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73743B71-12CC-4A65-A712-8C586D2A7F83}">
   <dimension ref="B2:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:W6"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2909,13 +2909,13 @@
         <v>12345</v>
       </c>
       <c r="T4" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" s="4">
         <v>1</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
@@ -3045,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
   <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,6 +3223,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3443,24 +3460,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3478,24 +3498,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\NORMALIZACION Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIDEL-SMOKE\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC43265-8C6F-4ADD-BF39-A65BE3262C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01E0E45-2AE9-4D08-9DB5-2B40A3089E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="6" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
     <sheet name=" Producto Normalización" sheetId="3" r:id="rId2"/>
-    <sheet name="Servicio Normalización" sheetId="4" r:id="rId3"/>
+    <sheet name="TipoServicio Normalización" sheetId="4" r:id="rId3"/>
     <sheet name="Compra Normalización" sheetId="5" r:id="rId4"/>
     <sheet name="CarritoCompra_Normalización" sheetId="6" r:id="rId5"/>
     <sheet name="Factura_Normalización" sheetId="7" r:id="rId6"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="159">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Corte Basico</t>
   </si>
   <si>
-    <t>Corte Medio</t>
-  </si>
-  <si>
     <t>Corte Premium</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Corte Mas Linea</t>
   </si>
   <si>
-    <t>Corte, Lineas, Cuidado Facial Y Masajes</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
@@ -109,18 +103,6 @@
     <t>HORARIO</t>
   </si>
   <si>
-    <t xml:space="preserve"> C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>Nombre_Usuario</t>
   </si>
   <si>
@@ -280,33 +262,12 @@
     <t>Gorras de diferentes estilos</t>
   </si>
   <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>ID_Servicio</t>
-  </si>
-  <si>
-    <t>SE1</t>
-  </si>
-  <si>
-    <t>SE2</t>
-  </si>
-  <si>
-    <t>SE3</t>
-  </si>
-  <si>
     <t>TS1</t>
   </si>
   <si>
     <t>TS2</t>
   </si>
   <si>
-    <t>TS3</t>
-  </si>
-  <si>
-    <t>ID_cliente</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -355,9 +316,6 @@
     <t>Daviplata</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>PRODUCTO</t>
   </si>
   <si>
@@ -524,6 +482,33 @@
   </si>
   <si>
     <t>Cliente</t>
+  </si>
+  <si>
+    <t>Corte, Lineas, Mascarillas, Vaporosono</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U3</t>
+  </si>
+  <si>
+    <t>Administardor</t>
+  </si>
+  <si>
+    <t>U4</t>
   </si>
 </sst>
 </file>
@@ -638,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -714,6 +699,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -733,9 +730,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -773,7 +770,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -879,7 +876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1021,7 +1018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1031,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
   <dimension ref="B2:AA9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:AA6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,18 +1071,18 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="I2" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="N2" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="R2" s="24" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
@@ -1094,7 +1091,7 @@
       <c r="W2" s="25"/>
       <c r="X2" s="26"/>
       <c r="Z2" s="24" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AA2" s="26"/>
     </row>
@@ -1106,7 +1103,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -1115,55 +1112,55 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1174,46 +1171,46 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7">
         <v>18000</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="T4" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U4" s="7">
         <v>1098556772</v>
@@ -1225,7 +1222,7 @@
         <v>123456789</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="4">
         <v>1</v>
@@ -1242,46 +1239,46 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7">
         <v>22000</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U5" s="7">
         <v>1028662003</v>
@@ -1290,16 +1287,16 @@
         <v>3142758305</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z5" s="4">
         <v>2</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1307,49 +1304,37 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="7">
-        <v>50000</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>28</v>
+      <c r="P6" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U6" s="7">
         <v>10098977625</v>
@@ -1358,16 +1343,16 @@
         <v>3044495505</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="4">
         <v>3</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1381,6 +1366,7 @@
     <mergeCell ref="R2:X2"/>
     <mergeCell ref="Z2:AA2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="T4" r:id="rId1" xr:uid="{6B5B4F14-46AF-47B1-B4F8-5BE8342968CE}"/>
     <hyperlink ref="T5" r:id="rId2" xr:uid="{456414B6-326B-4422-84EF-4B15C306B71E}"/>
@@ -1394,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1412,7 +1398,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1420,129 +1406,129 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="I2" s="22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E4" s="12">
         <v>20</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1">
         <v>78000</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1">
         <v>50000</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1">
         <v>20000</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1">
         <v>15000</v>
@@ -1550,19 +1536,19 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1">
         <v>32000</v>
@@ -1570,19 +1556,19 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1">
         <v>60</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
@@ -1599,17 +1585,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C501386-919F-43F1-83F0-4F38E7F1D1A2}">
-  <dimension ref="B3:T7"/>
+  <dimension ref="B3:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" customWidth="1"/>
@@ -1628,244 +1614,178 @@
     <col min="22" max="22" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="K3" s="24" t="s">
-        <v>162</v>
-      </c>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="H3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="P3" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="Q3" s="26"/>
-      <c r="S3" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="T3" s="26"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="30">
+        <v>18000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1098556772</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3109980085</v>
+      </c>
+      <c r="M5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="P5" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="30">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="J6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18000</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="K6" s="7">
+        <v>1028662003</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3142758305</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1098556772</v>
-      </c>
-      <c r="O5" s="1">
-        <v>3109980085</v>
-      </c>
-      <c r="P5" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="N6" s="12">
         <v>3</v>
       </c>
-      <c r="S5" s="4">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22000</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1028662003</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3142758305</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="12">
+      <c r="P6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="4">
         <v>3</v>
       </c>
-      <c r="S6" s="4">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7">
-        <v>50000</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="7">
-        <v>10098977625</v>
-      </c>
-      <c r="O7" s="1">
-        <v>3044495505</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>3</v>
-      </c>
-      <c r="S7" s="4">
-        <v>3</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>163</v>
+      <c r="Q7" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:I3"/>
+  <mergeCells count="3">
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1" xr:uid="{B49A1CB9-E41E-436B-9CE4-5ADB2C9DF14E}"/>
-    <hyperlink ref="M6" r:id="rId2" xr:uid="{AA5E5163-1E46-4CF4-BE23-0C07D01CF971}"/>
-    <hyperlink ref="M7" r:id="rId3" xr:uid="{63774913-6B9D-4972-BEA4-E65BDA4BD643}"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{248447E3-87E3-47BB-9529-1147E02CFDFF}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{7602097B-33A0-4C6B-94B7-E7B880CB7FD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1876,7 +1796,7 @@
   <dimension ref="B2:Y7"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1825,7 @@
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1913,7 +1833,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="I2" s="24" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
@@ -1921,7 +1841,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="26"/>
       <c r="P2" s="24" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
@@ -1930,120 +1850,120 @@
       <c r="U2" s="25"/>
       <c r="V2" s="26"/>
       <c r="X2" s="24" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="Y2" s="26"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="J3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="P3" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" s="14">
         <v>78000</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N4" s="7">
         <v>78000</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="R4" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S4" s="7">
         <v>1098556772</v>
@@ -2061,54 +1981,54 @@
         <v>1</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2">
         <v>50000</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N5" s="7">
         <v>50000</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="S5" s="7">
         <v>1028662003</v>
@@ -2117,7 +2037,7 @@
         <v>3142758305</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="V5" s="12">
         <v>3</v>
@@ -2126,54 +2046,54 @@
         <v>2</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D6" s="14">
         <v>8000</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N6" s="7">
         <v>8000</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S6" s="7">
         <v>10098977625</v>
@@ -2182,7 +2102,7 @@
         <v>3044495505</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="V6" s="12">
         <v>3</v>
@@ -2191,54 +2111,54 @@
         <v>3</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D7" s="14">
         <v>15000</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N7" s="7">
         <v>15000</v>
       </c>
       <c r="P7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="S7" s="7">
         <v>10098977625</v>
@@ -2247,7 +2167,7 @@
         <v>3044495505</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="V7" s="12">
         <v>3</v>
@@ -2276,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
   <dimension ref="B2:AD16"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,13 +2227,13 @@
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="G2" s="24" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -2321,7 +2241,7 @@
       <c r="K2" s="25"/>
       <c r="L2" s="26"/>
       <c r="N2" s="24" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
@@ -2330,7 +2250,7 @@
       <c r="S2" s="25"/>
       <c r="T2" s="26"/>
       <c r="V2" s="22" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
@@ -2338,126 +2258,126 @@
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
       <c r="AC2" s="24" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AD2" s="26"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="N3" s="13" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L4" s="7">
         <v>78000</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="P4" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="7">
         <v>1098556772</v>
@@ -2472,69 +2392,69 @@
         <v>3</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X4" s="14">
         <v>78000</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="AC4" s="4">
         <v>1</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L5" s="7">
         <v>50000</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="7">
         <v>1028662003</v>
@@ -2543,75 +2463,75 @@
         <v>3142758305</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T5" s="12">
         <v>3</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="X5" s="2">
         <v>50000</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="AC5" s="4">
         <v>2</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J6" s="7">
         <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L6" s="7">
         <v>8000</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7">
         <v>10098977625</v>
@@ -2620,75 +2540,75 @@
         <v>3044495505</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="T6" s="12">
         <v>3</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="X6" s="14">
         <v>8000</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="AC6" s="4">
         <v>3</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L7" s="7">
         <v>15000</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="Q7" s="7">
         <v>10098977625</v>
@@ -2697,28 +2617,28 @@
         <v>3044495505</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="T7" s="12">
         <v>3</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="X7" s="14">
         <v>15000</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2745,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73743B71-12CC-4A65-A712-8C586D2A7F83}">
   <dimension ref="B2:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,13 +2693,13 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="G2" s="22" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -2787,7 +2707,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="N2" s="24" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
@@ -2796,108 +2716,108 @@
       <c r="S2" s="25"/>
       <c r="T2" s="26"/>
       <c r="V2" s="24" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="W2" s="26"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C4" s="15">
         <v>45801</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I4" s="14">
         <v>78000</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="12">
         <v>10986775432</v>
@@ -2915,115 +2835,115 @@
         <v>1</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C5" s="15">
         <v>46227</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I5" s="2">
         <v>50000</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="V5" s="4">
         <v>2</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C6" s="15">
         <v>46623</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I6" s="14">
         <v>8000</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="V6" s="4">
         <v>3</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C7" s="15">
         <v>47020</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I7" s="14">
         <v>15000</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3045,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
   <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,12 +2985,12 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="F2" s="24" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
@@ -3079,19 +2999,19 @@
       <c r="K2" s="25"/>
       <c r="L2" s="26"/>
       <c r="N2" s="24" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O2" s="26"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
@@ -3100,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
@@ -3109,92 +3029,92 @@
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="16">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C5" s="18">
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="16">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3232,14 +3152,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3460,6 +3372,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
@@ -3469,18 +3389,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3498,4 +3406,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIDEL-SMOKE\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01E0E45-2AE9-4D08-9DB5-2B40A3089E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19DC026-D163-45EA-9C40-EC685E779649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
@@ -684,6 +684,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,9 +709,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1062,38 +1062,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="22" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="R2" s="24" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="R2" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26"/>
-      <c r="Z2" s="24" t="s">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="27"/>
+      <c r="Z2" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="AA2" s="26"/>
+      <c r="AA2" s="27"/>
     </row>
     <row r="3" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1397,18 +1397,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="22" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1615,26 +1615,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="H3" s="24" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="H3" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-      <c r="P3" s="24" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="P3" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="Q3" s="26"/>
+      <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -1690,7 +1690,7 @@
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="22">
         <v>18000</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1734,7 +1734,7 @@
       <c r="D6" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="22">
         <v>50000</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1824,35 +1824,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="P2" s="24" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="P2" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="X2" s="24" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="X2" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="Y2" s="26"/>
+      <c r="Y2" s="27"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2196,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
   <dimension ref="B2:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
@@ -2226,41 +2226,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="G2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="N2" s="24" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="N2" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
-      <c r="V2" s="22" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27"/>
+      <c r="V2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AC2" s="24" t="s">
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AC2" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="AD2" s="26"/>
+      <c r="AD2" s="27"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2692,33 +2692,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="22" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="G2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="N2" s="24" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="N2" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
-      <c r="V2" s="24" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27"/>
+      <c r="V2" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="W2" s="26"/>
+      <c r="W2" s="27"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2984,24 +2984,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="N2" s="24" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="N2" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="26"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -3152,6 +3152,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3372,14 +3380,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
@@ -3389,6 +3389,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3406,16 +3418,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIDEL-SMOKE\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19DC026-D163-45EA-9C40-EC685E779649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E83676-D1FE-4BA0-89E6-2AE52C4C2AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="CarritoCompra_Normalización" sheetId="6" r:id="rId5"/>
     <sheet name="Factura_Normalización" sheetId="7" r:id="rId6"/>
     <sheet name="Recordatorio_Normalización" sheetId="8" r:id="rId7"/>
-    <sheet name="Horario_Normalización" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -730,9 +729,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -770,7 +769,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -876,7 +875,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1018,7 +1017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2196,7 +2195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
   <dimension ref="B2:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
@@ -2965,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
   <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,38 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1195C19-A3D4-4E8F-9FE3-4527918E5A48}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3380,10 +3348,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3401,21 +3398,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\NORMALIZACION MODELO ENTIDAD RELACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E83676-D1FE-4BA0-89E6-2AE52C4C2AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDDE524-6121-4085-BBE6-358B42A2DCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="161">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -617,12 +623,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -709,6 +726,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1027,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
   <dimension ref="B2:AA9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,6 +1154,9 @@
       <c r="P3" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="Q3" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="R3" s="13" t="s">
         <v>147</v>
       </c>
@@ -1202,6 +1225,9 @@
       <c r="P4" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="Q4" t="s">
+        <v>158</v>
+      </c>
       <c r="R4" s="4" t="s">
         <v>151</v>
       </c>
@@ -1270,6 +1296,9 @@
       <c r="P5" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="Q5" t="s">
+        <v>159</v>
+      </c>
       <c r="R5" s="4" t="s">
         <v>152</v>
       </c>
@@ -1325,6 +1354,9 @@
       </c>
       <c r="P6" s="2" t="s">
         <v>153</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>160</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>153</v>
@@ -2965,7 +2997,7 @@
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,6 +3160,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3348,14 +3388,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3366,6 +3398,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3385,18 +3429,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
